--- a/dados/tabela_premier_league.xlsx
+++ b/dados/tabela_premier_league.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luanc\OneDrive\Área de Trabalho\Projeto 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luanc\OneDrive\Área de Trabalho\Projetos Github\Projeto 01\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04B4C4-5484-4856-87D6-C01AA6AA5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0374C-0932-4732-B7C5-A7AA55EA730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +670,8 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <f>(D2/C2*100)/100</f>
-        <v>0.73684210526315785</v>
+        <f>((K2/114)*100)/100</f>
+        <v>0.7807017543859649</v>
       </c>
       <c r="H2" s="3">
         <v>94</v>
@@ -742,8 +742,8 @@
         <v>6</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G21" si="0">(D3/C3*100)/100</f>
-        <v>0.68421052631578949</v>
+        <f t="shared" ref="G3:G21" si="0">((K3/114)*100)/100</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H3" s="3">
         <v>88</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0.60526315789473684</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="H4" s="3">
         <v>58</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6228070175438597</v>
       </c>
       <c r="H5" s="3">
         <v>68</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58771929824561409</v>
       </c>
       <c r="H6" s="3">
         <v>75</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.47368421052631576</v>
+        <v>0.54385964912280704</v>
       </c>
       <c r="H7" s="3">
         <v>72</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.47368421052631576</v>
+        <v>0.53508771929824561</v>
       </c>
       <c r="H8" s="3">
         <v>51</v>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.47368421052631576</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="H9" s="3">
         <v>70</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
+        <v>0.51754385964912286</v>
       </c>
       <c r="H10" s="3">
         <v>58</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
+        <v>0.45614035087719296</v>
       </c>
       <c r="H11" s="3">
         <v>55</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="H12" s="3">
         <v>40</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="H13" s="3">
         <v>38</v>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.35964912280701755</v>
       </c>
       <c r="H14" s="3">
         <v>31</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.35087719298245612</v>
       </c>
       <c r="H15" s="3">
         <v>42</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.34210526315789475</v>
       </c>
       <c r="H16" s="3">
         <v>37</v>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>0.23684210526315788</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="H17" s="3">
         <v>38</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="H18" s="3">
         <v>34</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>0.23684210526315788</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="H19" s="3">
         <v>51</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
+        <v>0.27192982456140352</v>
       </c>
       <c r="H20" s="3">
         <v>48</v>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>0.15789473684210525</v>
+        <v>0.21929824561403508</v>
       </c>
       <c r="H21" s="3">
         <v>36</v>
